--- a/final project tasks.xlsx
+++ b/final project tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Final Project Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Smart-Home-System-controlled-by-EEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC61D36-3D96-4171-9C9A-8CFB0B51D7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C59EB-859C-4AE6-A9EC-C5E46CA2D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
   <si>
     <t>Title</t>
   </si>
@@ -208,6 +208,24 @@
   </si>
   <si>
     <t>task 6</t>
+  </si>
+  <si>
+    <t>control using gyro and acc</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>almost done</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -223,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +266,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -261,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -273,6 +297,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +600,7 @@
     <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -598,8 +625,11 @@
       <c r="H1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -624,8 +654,11 @@
       <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -650,8 +683,11 @@
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -677,33 +713,36 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -728,8 +767,11 @@
       <c r="H6" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -754,8 +796,11 @@
       <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -780,34 +825,40 @@
       <c r="H8" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I9" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -833,7 +884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -859,7 +910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -885,7 +936,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -911,7 +962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -936,8 +987,11 @@
       <c r="H14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -963,9 +1017,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">

--- a/final project tasks.xlsx
+++ b/final project tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Graduation_Project\Smart-Home-System-controlled-by-EEG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5C59EB-859C-4AE6-A9EC-C5E46CA2D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D65A65-74E6-4C05-B063-BBC9DAD8632E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Title</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>jaw clenching detection</t>
+  </si>
+  <si>
+    <t>one day</t>
   </si>
 </sst>
 </file>
@@ -584,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,88 +635,91 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="I2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="I3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -742,32 +751,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -797,7 +806,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -858,30 +867,33 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -909,6 +921,9 @@
       <c r="H11" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -936,30 +951,33 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
@@ -1017,99 +1035,114 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="I16" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
